--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_29.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>355246.4102733154</v>
+        <v>366200.7754951578</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.11007558</v>
+        <v>8768687.110075584</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>90.15014305038721</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.886970932436812</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>158.9768736825224</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,25 +899,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>212.2853856434421</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -1023,25 +1023,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>237.3811362441418</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>155.6728463193873</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>196.9826481283071</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>188.9257796665961</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>59.15467017334329</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.089049841944</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>20.52154619639785</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>268.1339814092298</v>
       </c>
     </row>
     <row r="12">
@@ -1452,13 +1452,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>136.6941370086349</v>
@@ -1497,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8986597023843</v>
+        <v>215.173248360737</v>
       </c>
       <c r="V12" t="n">
-        <v>89.18211739820566</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1537,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884934</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>184.1341378127508</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.9157019973699</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>162.3073150960737</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8986597023843</v>
+        <v>20.46474946062374</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>92.4784086463653</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>140.4555134459652</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1844,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>29.80942153822008</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>383.380086515022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.456834824088546</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
-        <v>197.5472709665096</v>
+        <v>86.16326343026775</v>
       </c>
       <c r="U18" t="n">
         <v>225.8986597023843</v>
@@ -1983,7 +1983,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>25.73442613929191</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>13.63855752214137</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>137.3883794282476</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>166.7835637880079</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,7 +2166,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2175,7 +2175,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>67.03858805571426</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
@@ -2223,7 +2223,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>106.3028740211264</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>85.01043530101144</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>109.7384251876796</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>303.0090314087153</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>318.2801892474977</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>27.0240109355215</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>29.38391736390409</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
         <v>197.5472709665096</v>
@@ -2488,16 +2488,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.12051712137662</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>13.87222205719629</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>158.2261753708127</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>29.76633154051239</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,22 +2637,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>9.049743378592472</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
-        <v>138.1448796507991</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
         <v>197.5472709665096</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>92.96858446131048</v>
+        <v>187.9216174196134</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>37.41086112371843</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>314.3007706111022</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>53.92880121529013</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>15.60609219526663</v>
       </c>
     </row>
     <row r="31">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>122.3078802415591</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>88.59832967195071</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>8.653309530865032</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>91.02294549326476</v>
       </c>
     </row>
     <row r="33">
@@ -3114,10 +3114,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>45.59910121103272</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>136.6941370086349</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>15.69638162143981</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.50776027739583</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3229,19 +3229,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>48.02391253490439</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>215.2073733903115</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
         <v>217.7829317747374</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>335.4129376349906</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
@@ -3402,13 +3402,13 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
-        <v>194.1467568719794</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>40.2412654728257</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>129.6635172592366</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>54.44663919424271</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,16 +3512,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
-        <v>101.926667932939</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>158.6080650900668</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3588,7 +3588,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>76.32943916025816</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>84.48745916175817</v>
       </c>
       <c r="I39" t="n">
         <v>67.03858805571426</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3664,22 +3664,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>12.46775721162858</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>75.58673470997151</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>200.9503281648163</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.3971696935598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>17.93784657305899</v>
       </c>
       <c r="E42" t="n">
-        <v>14.02661070418132</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3837,7 +3837,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
@@ -3898,16 +3898,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>114.7943575370065</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>67.28252800748253</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>95.20378277891902</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>131.1511819701073</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>172.5161931289813</v>
+        <v>66.55239406957189</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4180,16 +4180,16 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R46" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>147.3472002825671</v>
+        <v>13.87222205719618</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.7108255783361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C2" t="n">
-        <v>233.7108255783361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D2" t="n">
         <v>41.68395448076474</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="Y2" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223.7040404982626</v>
+        <v>183.4549323908569</v>
       </c>
       <c r="C3" t="n">
-        <v>223.7040404982626</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,16 +4413,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4440,19 +4440,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>702.3049253741053</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>467.1528171423627</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W3" t="n">
-        <v>223.7040404982626</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X3" t="n">
-        <v>223.7040404982626</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y3" t="n">
-        <v>223.7040404982626</v>
+        <v>183.4549323908569</v>
       </c>
     </row>
     <row r="4">
@@ -4504,10 +4504,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F5" t="n">
-        <v>233.7108255783361</v>
+        <v>216.6737094609055</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>201.2163988395569</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>201.2163988395569</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>74.24228005117135</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L6" t="n">
+        <v>65.60123993063803</v>
+      </c>
+      <c r="M6" t="n">
         <v>304.2053859195205</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N6" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4671,22 +4671,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>259.0600686093459</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
         <v>19.28114311021272</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7108255783361</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>477.1596022224361</v>
+        <v>753.253405673024</v>
       </c>
       <c r="Y8" t="n">
-        <v>233.7108255783361</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,13 +4887,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4914,19 +4914,19 @@
         <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>498.6361606388412</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V9" t="n">
-        <v>263.4840524070985</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W9" t="n">
-        <v>20.03527576299844</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1950.55522927932</v>
+        <v>1164.47789022513</v>
       </c>
       <c r="C11" t="n">
-        <v>1950.55522927932</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="D11" t="n">
-        <v>1592.28953067257</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E11" t="n">
-        <v>1206.501278074326</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F11" t="n">
         <v>795.5153732847182</v>
@@ -5039,16 +5039,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L11" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5066,25 +5066,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="W11" t="n">
-        <v>2324.0209875404</v>
+        <v>1808.786053950078</v>
       </c>
       <c r="X11" t="n">
-        <v>1950.55522927932</v>
+        <v>1435.320295688998</v>
       </c>
       <c r="Y11" t="n">
-        <v>1950.55522927932</v>
+        <v>1164.47789022513</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>693.4102525704071</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>518.9572232892801</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>518.9572232892801</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F12" t="n">
         <v>359.7197682838247</v>
@@ -5127,16 +5127,16 @@
         <v>705.6153558007836</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P12" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
@@ -5145,25 +5145,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T12" t="n">
-        <v>2145.207124136247</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U12" t="n">
-        <v>1917.026659790404</v>
+        <v>1766.626853520906</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1531.474745289163</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1277.237388560962</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>1069.385888355429</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>861.6255895904751</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363102</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363102</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F13" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5236,13 +5236,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>421.774494837572</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363102</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363102</v>
+        <v>193.7849439395547</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1939.313389647675</v>
+        <v>1146.495209163961</v>
       </c>
       <c r="C14" t="n">
-        <v>1939.313389647675</v>
+        <v>1146.495209163961</v>
       </c>
       <c r="D14" t="n">
-        <v>1581.047691040924</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="E14" t="n">
-        <v>1195.25943844268</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F14" t="n">
-        <v>784.2735336530725</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G14" t="n">
-        <v>366.0017661359573</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H14" t="n">
         <v>46.89499644164432</v>
@@ -5303,25 +5303,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T14" t="n">
-        <v>2270.376276991246</v>
+        <v>1923.234381203895</v>
       </c>
       <c r="U14" t="n">
-        <v>2270.376276991246</v>
+        <v>1923.234381203895</v>
       </c>
       <c r="V14" t="n">
-        <v>1939.313389647675</v>
+        <v>1923.234381203895</v>
       </c>
       <c r="W14" t="n">
-        <v>1939.313389647675</v>
+        <v>1923.234381203895</v>
       </c>
       <c r="X14" t="n">
-        <v>1939.313389647675</v>
+        <v>1923.234381203895</v>
       </c>
       <c r="Y14" t="n">
-        <v>1939.313389647675</v>
+        <v>1533.095049228083</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>829.641765199318</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>655.188735918191</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="E15" t="n">
         <v>506.2543262569397</v>
@@ -5355,52 +5355,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L15" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M15" t="n">
-        <v>1056.511576412174</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N15" t="n">
-        <v>1568.236257700347</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O15" t="n">
-        <v>1969.948689296674</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P15" t="n">
-        <v>2275.355263568887</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1902.858366149817</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1667.706257918074</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1413.468901189873</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>1205.61740098434</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>997.857102219386</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.3180182963936</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="C16" t="n">
-        <v>102.3180182963936</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="D16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5458,28 +5458,28 @@
         <v>566.78431370192</v>
       </c>
       <c r="R16" t="n">
-        <v>412.4263787765005</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S16" t="n">
-        <v>195.7305522826212</v>
+        <v>566.78431370192</v>
       </c>
       <c r="T16" t="n">
-        <v>102.3180182963936</v>
+        <v>338.8858918600055</v>
       </c>
       <c r="U16" t="n">
-        <v>102.3180182963936</v>
+        <v>338.8858918600055</v>
       </c>
       <c r="V16" t="n">
-        <v>102.3180182963936</v>
+        <v>338.8858918600055</v>
       </c>
       <c r="W16" t="n">
-        <v>102.3180182963936</v>
+        <v>338.8858918600055</v>
       </c>
       <c r="X16" t="n">
-        <v>102.3180182963936</v>
+        <v>338.8858918600055</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.3180182963936</v>
+        <v>197.0116358539801</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1570.897369376658</v>
+        <v>572.6927139372265</v>
       </c>
       <c r="C17" t="n">
-        <v>1201.934852436247</v>
+        <v>572.6927139372265</v>
       </c>
       <c r="D17" t="n">
-        <v>843.6691538294961</v>
+        <v>572.6927139372265</v>
       </c>
       <c r="E17" t="n">
-        <v>457.8809012312519</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F17" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G17" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H17" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
@@ -5519,10 +5519,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5537,28 +5537,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="V17" t="n">
-        <v>2344.749822082216</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.749822082216</v>
+        <v>1332.758312262428</v>
       </c>
       <c r="X17" t="n">
-        <v>2344.749822082216</v>
+        <v>959.2925540013482</v>
       </c>
       <c r="Y17" t="n">
-        <v>1957.49720944078</v>
+        <v>959.2925540013482</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>676.0544483625931</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C18" t="n">
-        <v>501.6014190814661</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D18" t="n">
-        <v>352.6670094202149</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E18" t="n">
-        <v>193.4295544147594</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F18" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G18" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H18" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>121.6684232076323</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161161</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832905</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2338.227766704349</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2176.994211604904</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>1977.451513658935</v>
+        <v>2036.038928772914</v>
       </c>
       <c r="U18" t="n">
-        <v>1749.271049313092</v>
+        <v>1807.858464427071</v>
       </c>
       <c r="V18" t="n">
-        <v>1514.118941081349</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="W18" t="n">
-        <v>1259.881584353148</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X18" t="n">
-        <v>1052.030084147615</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y18" t="n">
-        <v>844.2697853826612</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>379.7790225382928</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C19" t="n">
-        <v>379.7790225382928</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D19" t="n">
-        <v>379.7790225382928</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E19" t="n">
-        <v>231.8659289558997</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F19" t="n">
-        <v>231.8659289558997</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G19" t="n">
-        <v>231.8659289558997</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H19" t="n">
-        <v>72.88936627931292</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I19" t="n">
         <v>46.89499644164432</v>
@@ -5677,46 +5677,46 @@
         <v>87.46721626702976</v>
       </c>
       <c r="L19" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N19" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O19" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P19" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q19" t="n">
-        <v>607.7685734363101</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R19" t="n">
-        <v>607.7685734363101</v>
+        <v>553.0079929724843</v>
       </c>
       <c r="S19" t="n">
-        <v>607.7685734363101</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363101</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="U19" t="n">
-        <v>607.7685734363101</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V19" t="n">
-        <v>607.7685734363101</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W19" t="n">
-        <v>607.7685734363101</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X19" t="n">
-        <v>379.7790225382928</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y19" t="n">
-        <v>379.7790225382928</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>942.5914582393195</v>
+        <v>596.6570420678656</v>
       </c>
       <c r="C20" t="n">
-        <v>573.6289412989079</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="D20" t="n">
-        <v>215.3632426921574</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="E20" t="n">
-        <v>215.3632426921574</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F20" t="n">
-        <v>215.3632426921574</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G20" t="n">
-        <v>215.3632426921574</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H20" t="n">
         <v>46.89499644164432</v>
@@ -5750,16 +5750,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5774,28 +5774,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T20" t="n">
-        <v>2050.393517622824</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U20" t="n">
-        <v>2050.393517622824</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V20" t="n">
-        <v>1719.330630279253</v>
+        <v>1356.722640393067</v>
       </c>
       <c r="W20" t="n">
-        <v>1719.330630279253</v>
+        <v>1356.722640393067</v>
       </c>
       <c r="X20" t="n">
-        <v>1719.330630279253</v>
+        <v>983.2568821319874</v>
       </c>
       <c r="Y20" t="n">
-        <v>1329.191298303441</v>
+        <v>983.2568821319874</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>722.607624735268</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>548.154595454141</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H21" t="n">
         <v>114.6107419524668</v>
@@ -5829,52 +5829,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>1025.950675330485</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1537.675356618659</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>1939.387788214985</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>1098.58326052029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>890.8229617553361</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C22" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D22" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E22" t="n">
-        <v>521.899446869632</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>375.0094993717216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
         <v>46.89499644164432</v>
@@ -5929,31 +5929,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R22" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S22" t="n">
-        <v>607.7685734363102</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="T22" t="n">
-        <v>607.7685734363102</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="U22" t="n">
-        <v>607.7685734363102</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="V22" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W22" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X22" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y22" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1568.010650042283</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="C23" t="n">
-        <v>1568.010650042283</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="D23" t="n">
-        <v>1568.010650042283</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="E23" t="n">
-        <v>1182.222397444039</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F23" t="n">
-        <v>771.2364926544315</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G23" t="n">
-        <v>352.9647251373163</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H23" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -6011,28 +6011,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082217</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082217</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082217</v>
+        <v>1613.411982645668</v>
       </c>
       <c r="V23" t="n">
-        <v>2344.749822082217</v>
+        <v>1282.349095302097</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.749822082217</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="X23" t="n">
-        <v>2344.749822082217</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="Y23" t="n">
-        <v>1954.610490106405</v>
+        <v>960.8539546480588</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>843.8100588399052</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C24" t="n">
-        <v>669.3570295587782</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D24" t="n">
-        <v>520.4226198975269</v>
+        <v>420.3827549310374</v>
       </c>
       <c r="E24" t="n">
-        <v>361.1851648920714</v>
+        <v>261.1452999255819</v>
       </c>
       <c r="F24" t="n">
-        <v>214.6506069189564</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G24" t="n">
-        <v>76.57572105164846</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L24" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M24" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N24" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>2145.207124136247</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>1917.026659790404</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V24" t="n">
-        <v>1681.874551558662</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W24" t="n">
-        <v>1427.63719483046</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X24" t="n">
-        <v>1219.785694624927</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y24" t="n">
-        <v>1012.025395859973</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C25" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>210.7322113409051</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>210.7322113409051</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>70.24905414000455</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
         <v>46.89499644164432</v>
@@ -6166,31 +6166,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R25" t="n">
-        <v>607.7685734363102</v>
+        <v>552.7719681896006</v>
       </c>
       <c r="S25" t="n">
-        <v>607.7685734363102</v>
+        <v>336.0761416957212</v>
       </c>
       <c r="T25" t="n">
-        <v>379.8701515943957</v>
+        <v>336.0761416957212</v>
       </c>
       <c r="U25" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V25" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W25" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X25" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y25" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1194.544891781203</v>
+        <v>983.2568821319874</v>
       </c>
       <c r="C26" t="n">
-        <v>825.5823748407913</v>
+        <v>983.2568821319874</v>
       </c>
       <c r="D26" t="n">
-        <v>825.5823748407913</v>
+        <v>624.9911835252369</v>
       </c>
       <c r="E26" t="n">
-        <v>825.5823748407913</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F26" t="n">
-        <v>825.5823748407913</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G26" t="n">
-        <v>407.3106073236762</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
-        <v>76.96199799771745</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6251,25 +6251,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T26" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U26" t="n">
-        <v>2344.749822082216</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V26" t="n">
-        <v>2344.749822082216</v>
+        <v>1356.722640393067</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.749822082216</v>
+        <v>1356.722640393067</v>
       </c>
       <c r="X26" t="n">
-        <v>1971.284063821136</v>
+        <v>983.2568821319874</v>
       </c>
       <c r="Y26" t="n">
-        <v>1581.144731845325</v>
+        <v>983.2568821319874</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>704.2697763643505</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C27" t="n">
-        <v>529.8167470832235</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D27" t="n">
-        <v>380.8823374219722</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="E27" t="n">
-        <v>221.6448824165167</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F27" t="n">
-        <v>221.6448824165167</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O27" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
-        <v>2224.924468802403</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2205.209539606662</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2005.666841660692</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1777.48637731485</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1542.334269083107</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1288.096912354905</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1080.245412149372</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>872.4851133844186</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2250.842161010185</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>2081.905978082279</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>1931.789338669943</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L28" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M28" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N28" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O28" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S28" t="n">
-        <v>2344.749822082216</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="T28" t="n">
-        <v>2344.749822082216</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="U28" t="n">
-        <v>2344.749822082216</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="V28" t="n">
-        <v>2344.749822082216</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="W28" t="n">
-        <v>2344.749822082216</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="X28" t="n">
-        <v>2344.749822082216</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="Y28" t="n">
-        <v>2250.842161010185</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>405.1606950483948</v>
+        <v>790.948947646639</v>
       </c>
       <c r="C29" t="n">
-        <v>405.1606950483948</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D29" t="n">
-        <v>46.89499644164432</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E29" t="n">
         <v>46.89499644164432</v>
@@ -6485,28 +6485,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2306.9610734724</v>
       </c>
       <c r="S29" t="n">
-        <v>2270.376276991246</v>
+        <v>2123.765960610376</v>
       </c>
       <c r="T29" t="n">
-        <v>2050.393517622824</v>
+        <v>1903.783201241955</v>
       </c>
       <c r="U29" t="n">
-        <v>1796.607095507692</v>
+        <v>1903.783201241955</v>
       </c>
       <c r="V29" t="n">
-        <v>1465.544208164121</v>
+        <v>1903.783201241955</v>
       </c>
       <c r="W29" t="n">
-        <v>1112.775552894007</v>
+        <v>1551.014545971841</v>
       </c>
       <c r="X29" t="n">
-        <v>795.3000270242065</v>
+        <v>1177.548787710761</v>
       </c>
       <c r="Y29" t="n">
-        <v>405.1606950483948</v>
+        <v>1177.548787710761</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.8792202047736</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C30" t="n">
-        <v>814.4261909236466</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D30" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E30" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6543,19 +6543,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>276.0646041288937</v>
+        <v>244.4315198664946</v>
       </c>
       <c r="L30" t="n">
-        <v>645.6158192373775</v>
+        <v>613.9827349749785</v>
       </c>
       <c r="M30" t="n">
-        <v>1128.843878304552</v>
+        <v>1097.210794042153</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.172378671464</v>
+        <v>1608.935475330326</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>2010.647906926653</v>
       </c>
       <c r="P30" t="n">
         <v>2193.291384540003</v>
@@ -6564,28 +6564,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2290.276285501115</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2290.276285501115</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.094557224842</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>194.8080900240374</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C31" t="n">
-        <v>194.8080900240374</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8080900240374</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
         <v>46.89499644164432</v>
@@ -6646,25 +6646,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T31" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U31" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="V31" t="n">
-        <v>484.225260060998</v>
+        <v>136.388258736544</v>
       </c>
       <c r="W31" t="n">
-        <v>194.8080900240374</v>
+        <v>136.388258736544</v>
       </c>
       <c r="X31" t="n">
-        <v>194.8080900240374</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.8080900240374</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1215.241994772169</v>
+        <v>1131.994375306259</v>
       </c>
       <c r="C32" t="n">
-        <v>1215.241994772169</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="D32" t="n">
-        <v>1215.241994772169</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="E32" t="n">
-        <v>1215.241994772169</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F32" t="n">
-        <v>804.2560899825617</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G32" t="n">
-        <v>385.9843224654465</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H32" t="n">
-        <v>55.63571313948779</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L32" t="n">
         <v>762.591673824455</v>
@@ -6719,31 +6719,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082217</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082217</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="U32" t="n">
-        <v>2344.749822082217</v>
+        <v>1907.76828710506</v>
       </c>
       <c r="V32" t="n">
-        <v>2344.749822082217</v>
+        <v>1576.705399761489</v>
       </c>
       <c r="W32" t="n">
-        <v>1991.981166812103</v>
+        <v>1223.936744491375</v>
       </c>
       <c r="X32" t="n">
-        <v>1991.981166812103</v>
+        <v>1223.936744491375</v>
       </c>
       <c r="Y32" t="n">
-        <v>1601.841834836291</v>
+        <v>1131.994375306259</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>814.129334229901</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C33" t="n">
-        <v>639.676304948774</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D33" t="n">
-        <v>490.7418952875228</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E33" t="n">
-        <v>331.5044402820673</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="F33" t="n">
-        <v>184.9698823089523</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G33" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H33" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>645.6158192373775</v>
+        <v>644.17865582848</v>
       </c>
       <c r="M33" t="n">
-        <v>974.4476973832902</v>
+        <v>1127.406714895654</v>
       </c>
       <c r="N33" t="n">
-        <v>1486.172378671464</v>
+        <v>1639.131396183828</v>
       </c>
       <c r="O33" t="n">
         <v>1887.88481026779</v>
@@ -6819,10 +6819,10 @@
         <v>1205.95990094567</v>
       </c>
       <c r="X33" t="n">
-        <v>1190.104970014923</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y33" t="n">
-        <v>982.344671249969</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>125.1856633885088</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C34" t="n">
-        <v>125.1856633885088</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D34" t="n">
-        <v>125.1856633885088</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E34" t="n">
-        <v>125.1856633885088</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F34" t="n">
         <v>46.89499644164432</v>
@@ -6877,31 +6877,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R34" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S34" t="n">
-        <v>607.7685734363102</v>
+        <v>350.0884872080407</v>
       </c>
       <c r="T34" t="n">
-        <v>379.8701515943957</v>
+        <v>350.0884872080407</v>
       </c>
       <c r="U34" t="n">
-        <v>379.8701515943957</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="V34" t="n">
-        <v>125.1856633885088</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W34" t="n">
-        <v>125.1856633885088</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X34" t="n">
-        <v>125.1856633885088</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.1856633885088</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1164.47789022513</v>
+        <v>1212.631670769908</v>
       </c>
       <c r="C35" t="n">
-        <v>795.5153732847182</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="D35" t="n">
-        <v>795.5153732847182</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E35" t="n">
-        <v>795.5153732847182</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F35" t="n">
-        <v>795.5153732847182</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G35" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
         <v>46.89499644164432</v>
@@ -6962,25 +6962,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T35" t="n">
-        <v>2124.767062713795</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U35" t="n">
-        <v>2124.767062713795</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V35" t="n">
-        <v>2124.767062713795</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="W35" t="n">
-        <v>1771.99840744368</v>
+        <v>1602.771002745719</v>
       </c>
       <c r="X35" t="n">
-        <v>1771.99840744368</v>
+        <v>1602.771002745719</v>
       </c>
       <c r="Y35" t="n">
-        <v>1381.859075467869</v>
+        <v>1212.631670769908</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>921.1634746939509</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C36" t="n">
-        <v>746.7104454128239</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D36" t="n">
-        <v>597.7760357515726</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E36" t="n">
-        <v>438.5385807461172</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F36" t="n">
-        <v>292.0040227730022</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G36" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H36" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
@@ -7017,7 +7017,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L36" t="n">
         <v>491.2196383161158</v>
@@ -7038,28 +7038,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U36" t="n">
-        <v>1955.335802636929</v>
+        <v>1894.892063851584</v>
       </c>
       <c r="V36" t="n">
-        <v>1759.227967412707</v>
+        <v>1659.739955619841</v>
       </c>
       <c r="W36" t="n">
-        <v>1504.990610684506</v>
+        <v>1405.50259889164</v>
       </c>
       <c r="X36" t="n">
-        <v>1297.139110478973</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.378811714019</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1783.87624508755</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="C37" t="n">
-        <v>1783.87624508755</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="D37" t="n">
-        <v>1783.87624508755</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="E37" t="n">
-        <v>1783.87624508755</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="F37" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="G37" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H37" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L37" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M37" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N37" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O37" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>2128.053995588337</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>2073.057390341627</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V37" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W37" t="n">
-        <v>1783.87624508755</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X37" t="n">
-        <v>1783.87624508755</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y37" t="n">
-        <v>1783.87624508755</v>
+        <v>318.3514033993496</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.2194825945925</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="C38" t="n">
-        <v>623.2194825945925</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="D38" t="n">
-        <v>623.2194825945925</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E38" t="n">
-        <v>623.2194825945925</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F38" t="n">
-        <v>212.2335778049849</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G38" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L38" t="n">
         <v>762.591673824455</v>
@@ -7199,25 +7199,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2167.420046755954</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T38" t="n">
-        <v>1947.437287387532</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U38" t="n">
-        <v>1693.650865272399</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V38" t="n">
-        <v>1362.587977928828</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="W38" t="n">
-        <v>1009.819322658714</v>
+        <v>1559.12046352161</v>
       </c>
       <c r="X38" t="n">
-        <v>1009.819322658714</v>
+        <v>1185.65470526053</v>
       </c>
       <c r="Y38" t="n">
-        <v>1009.819322658714</v>
+        <v>795.5153732847182</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.1327649551154</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C39" t="n">
-        <v>447.6797356739884</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D39" t="n">
-        <v>298.7453260127371</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E39" t="n">
-        <v>221.6448824165167</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F39" t="n">
-        <v>221.6448824165167</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="H39" t="n">
         <v>114.6107419524668</v>
@@ -7257,46 +7257,46 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>123.2452335224236</v>
+        <v>2087.069735853946</v>
       </c>
       <c r="C40" t="n">
-        <v>123.2452335224236</v>
+        <v>2087.069735853946</v>
       </c>
       <c r="D40" t="n">
-        <v>123.2452335224236</v>
+        <v>1936.953096441611</v>
       </c>
       <c r="E40" t="n">
-        <v>123.2452335224236</v>
+        <v>1936.953096441611</v>
       </c>
       <c r="F40" t="n">
-        <v>123.2452335224236</v>
+        <v>1924.359402288451</v>
       </c>
       <c r="G40" t="n">
-        <v>123.2452335224236</v>
+        <v>1924.359402288451</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164432</v>
+        <v>1924.359402288451</v>
       </c>
       <c r="I40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L40" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N40" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O40" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q40" t="n">
-        <v>566.78431370192</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="R40" t="n">
-        <v>412.4263787765005</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="S40" t="n">
-        <v>412.4263787765005</v>
+        <v>2087.069735853946</v>
       </c>
       <c r="T40" t="n">
-        <v>412.4263787765005</v>
+        <v>2087.069735853946</v>
       </c>
       <c r="U40" t="n">
-        <v>123.2452335224236</v>
+        <v>2087.069735853946</v>
       </c>
       <c r="V40" t="n">
-        <v>123.2452335224236</v>
+        <v>2087.069735853946</v>
       </c>
       <c r="W40" t="n">
-        <v>123.2452335224236</v>
+        <v>2087.069735853946</v>
       </c>
       <c r="X40" t="n">
-        <v>123.2452335224236</v>
+        <v>2087.069735853946</v>
       </c>
       <c r="Y40" t="n">
-        <v>123.2452335224236</v>
+        <v>2087.069735853946</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>542.5821871309436</v>
+        <v>1680.796307467713</v>
       </c>
       <c r="C41" t="n">
-        <v>542.5821871309436</v>
+        <v>1311.833790527302</v>
       </c>
       <c r="D41" t="n">
-        <v>542.5821871309436</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="E41" t="n">
-        <v>542.5821871309436</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="F41" t="n">
         <v>542.5821871309436</v>
@@ -7415,10 +7415,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L41" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7430,31 +7430,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q41" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
         <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.1984047608</v>
+        <v>2067.396147531835</v>
       </c>
       <c r="U41" t="n">
-        <v>1613.411982645668</v>
+        <v>2067.396147531835</v>
       </c>
       <c r="V41" t="n">
-        <v>1282.349095302097</v>
+        <v>2067.396147531835</v>
       </c>
       <c r="W41" t="n">
-        <v>929.5804400319828</v>
+        <v>2067.396147531835</v>
       </c>
       <c r="X41" t="n">
-        <v>556.114681770903</v>
+        <v>2067.396147531835</v>
       </c>
       <c r="Y41" t="n">
-        <v>542.5821871309436</v>
+        <v>2067.396147531835</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>843.8100588399052</v>
+        <v>790.3481019751835</v>
       </c>
       <c r="C42" t="n">
-        <v>669.3570295587782</v>
+        <v>615.8950726940565</v>
       </c>
       <c r="D42" t="n">
-        <v>520.4226198975269</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
@@ -7491,49 +7491,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M42" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2275.355263568887</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>2145.207124136247</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>1917.026659790404</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V42" t="n">
-        <v>1681.874551558662</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W42" t="n">
-        <v>1427.63719483046</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X42" t="n">
-        <v>1219.785694624927</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y42" t="n">
-        <v>1012.025395859973</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>607.7685734363102</v>
+        <v>1907.261416444807</v>
       </c>
       <c r="C43" t="n">
-        <v>491.8146769342835</v>
+        <v>1907.261416444807</v>
       </c>
       <c r="D43" t="n">
-        <v>341.6980375219478</v>
+        <v>1907.261416444807</v>
       </c>
       <c r="E43" t="n">
-        <v>193.7849439395547</v>
+        <v>1907.261416444807</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L43" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N43" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O43" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363102</v>
+        <v>2128.053995588337</v>
       </c>
       <c r="T43" t="n">
-        <v>607.7685734363102</v>
+        <v>2128.053995588337</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363102</v>
+        <v>2128.053995588337</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363102</v>
+        <v>2128.053995588337</v>
       </c>
       <c r="W43" t="n">
-        <v>607.7685734363102</v>
+        <v>2128.053995588337</v>
       </c>
       <c r="X43" t="n">
-        <v>607.7685734363102</v>
+        <v>2128.053995588337</v>
       </c>
       <c r="Y43" t="n">
-        <v>607.7685734363102</v>
+        <v>1907.261416444807</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1164.47789022513</v>
+        <v>1104.471821314765</v>
       </c>
       <c r="C44" t="n">
-        <v>795.5153732847182</v>
+        <v>735.5093043743535</v>
       </c>
       <c r="D44" t="n">
-        <v>795.5153732847182</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E44" t="n">
-        <v>795.5153732847182</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F44" t="n">
-        <v>795.5153732847182</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G44" t="n">
         <v>377.243605767603</v>
@@ -7670,28 +7670,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U44" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V44" t="n">
-        <v>1517.246545495244</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W44" t="n">
-        <v>1164.47789022513</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="X44" t="n">
-        <v>1164.47789022513</v>
+        <v>1881.210993354699</v>
       </c>
       <c r="Y44" t="n">
-        <v>1164.47789022513</v>
+        <v>1491.071661378887</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>676.0544483625931</v>
+        <v>783.0885888266431</v>
       </c>
       <c r="C45" t="n">
-        <v>501.6014190814661</v>
+        <v>608.6355595455161</v>
       </c>
       <c r="D45" t="n">
-        <v>352.6670094202149</v>
+        <v>459.7011498842648</v>
       </c>
       <c r="E45" t="n">
-        <v>193.4295544147594</v>
+        <v>300.4636948788093</v>
       </c>
       <c r="F45" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G45" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H45" t="n">
         <v>46.89499644164432</v>
@@ -7728,13 +7728,13 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
         <v>1486.172378671464</v>
@@ -7758,19 +7758,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1749.271049313092</v>
+        <v>1856.305189777142</v>
       </c>
       <c r="V45" t="n">
-        <v>1514.118941081349</v>
+        <v>1621.153081545399</v>
       </c>
       <c r="W45" t="n">
-        <v>1259.881584353148</v>
+        <v>1366.915724817198</v>
       </c>
       <c r="X45" t="n">
-        <v>1052.030084147615</v>
+        <v>1159.064224611665</v>
       </c>
       <c r="Y45" t="n">
-        <v>844.2697853826612</v>
+        <v>951.3039258467111</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K46" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L46" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N46" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O46" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P46" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q46" t="n">
-        <v>566.78431370192</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="R46" t="n">
-        <v>412.4263787765005</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="S46" t="n">
-        <v>195.7305522826212</v>
+        <v>2087.069735853946</v>
       </c>
       <c r="T46" t="n">
-        <v>46.89499644164432</v>
+        <v>2073.057390341627</v>
       </c>
       <c r="U46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="V46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="W46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
   </sheetData>
@@ -8061,19 +8061,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3577389147212</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,7 +8307,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574062</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>108.5094987082741</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>402.132053707116</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>154.2790145108656</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>154.2790145108656</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>308.7830726041627</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>214.8846069991544</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10905,13 +10905,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>154.2790145108656</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>108.5094987082737</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23258,16 +23258,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.7829317747374</v>
@@ -23318,13 +23318,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>328.7194225210151</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>118.1039572468238</v>
       </c>
     </row>
     <row r="12">
@@ -23340,13 +23340,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23385,16 +23385,16 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>10.72541134164729</v>
       </c>
       <c r="V12" t="n">
-        <v>143.6184697512196</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23425,19 +23425,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9366819640819</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>102.3888605238402</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>11.12942123532923</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>55.47561667866378</v>
       </c>
       <c r="U14" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23580,7 +23580,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.4339102417606</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23674,7 +23674,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>133.1410289771301</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>78.12913990612964</v>
       </c>
     </row>
     <row r="17">
@@ -23732,25 +23732,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>352.1209485340417</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -23786,19 +23786,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.857852141031628</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23823,13 +23823,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.38246657340288</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>111.3840075362419</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23871,7 +23871,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,13 +23905,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>113.3438994895997</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620182</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,13 +23932,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>139.175798054024</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
@@ -23950,10 +23950,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,22 +23969,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>227.8845123427599</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>160.2615594446912</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
         <v>163.6851955497072</v>
@@ -24014,16 +24014,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,7 +24054,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24063,7 +24063,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24111,7 +24111,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>99.4701111823511</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>61.42352734555773</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
         <v>139.0783256288916</v>
@@ -24169,13 +24169,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>104.7904430412609</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
@@ -24184,7 +24184,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,19 +24212,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>24.03609182398384</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>30.96077946991534</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24288,7 +24288,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>120.4210546291173</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24297,13 +24297,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>76.57988169550534</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24376,16 +24376,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H25" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
-        <v>31.74827451482519</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24406,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>152.8143555761653</v>
+        <v>138.942133518969</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,16 +24440,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>223.7041947014491</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,10 +24458,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>133.9188640091948</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24491,16 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,22 +24525,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>148.5953370768085</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>21.47633989765106</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,10 +24646,10 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.6194376234954</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>125.6160688907843</v>
+        <v>30.66303593248136</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>36.2189485163427</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>55.43033006736687</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24774,10 +24774,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,13 +24804,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>5.910500182201289</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24825,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>190.0766035820377</v>
       </c>
     </row>
     <row r="31">
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24886,7 +24886,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.6194376234954</v>
@@ -24895,13 +24895,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>129.8297630822689</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>137.1113257170865</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>155.0318860188421</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24965,16 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>295.2149931627888</v>
       </c>
     </row>
     <row r="33">
@@ -25002,10 +25002,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>112.0459792443682</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25014,7 +25014,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25059,7 +25059,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>190.0766035820376</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>67.91328774553541</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.4465608509556</v>
@@ -25117,19 +25117,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>238.2654212666318</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>167.5264682731691</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,16 +25160,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -25202,7 +25202,7 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25214,7 +25214,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>13.8280310824224</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25251,7 +25251,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25290,13 +25290,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>38.65383027744588</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>165.5317197306518</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>15.7575307636946</v>
       </c>
       <c r="G37" t="n">
         <v>167.4465608509556</v>
@@ -25330,7 +25330,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>54.86879163620181</v>
@@ -25360,19 +25360,19 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>171.1727984292527</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25400,16 +25400,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25439,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>79.4364938004648</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>190.6329036273462</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25476,7 +25476,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>81.31564129514278</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25485,7 +25485,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>21.47633989765126</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>132.9532908113027</v>
       </c>
       <c r="G40" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>81.80006233984936</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
@@ -25676,25 +25676,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>16.83260360992119</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>372.8407689624938</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>129.5072189915797</v>
       </c>
       <c r="E42" t="n">
-        <v>143.6184697512196</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25725,7 +25725,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25786,16 +25786,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>52.45246356162137</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.13852001544872</v>
       </c>
       <c r="G43" t="n">
         <v>167.4465608509556</v>
@@ -25807,7 +25807,7 @@
         <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.6194376234954</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,7 +25877,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25910,28 +25910,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>232.5484756912159</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>238.5799187083618</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25959,7 +25959,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>67.03858805571424</v>
@@ -25998,7 +25998,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>53.38246657340306</v>
+        <v>159.3462656328124</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>78.27223734092829</v>
+        <v>211.7472155662992</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>541971.0045166415</v>
+        <v>541971.0045166416</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>541971.0045166415</v>
+        <v>541971.0045166416</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>541971.0045166415</v>
+        <v>541971.0045166417</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>541971.0045166416</v>
+        <v>541971.0045166417</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>541971.0045166415</v>
+        <v>541971.0045166416</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>541971.0045166414</v>
+        <v>541971.0045166416</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>541971.0045166415</v>
+        <v>541971.0045166416</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>541971.0045166416</v>
+        <v>541971.0045166417</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>541971.0045166417</v>
+        <v>541971.0045166416</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>541971.0045166417</v>
+        <v>541971.0045166415</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516053</v>
@@ -26323,25 +26323,25 @@
         <v>383345.3446581122</v>
       </c>
       <c r="F2" t="n">
-        <v>383345.3446581121</v>
+        <v>383345.3446581122</v>
       </c>
       <c r="G2" t="n">
+        <v>383345.3446581122</v>
+      </c>
+      <c r="H2" t="n">
         <v>383345.3446581123</v>
-      </c>
-      <c r="H2" t="n">
-        <v>383345.3446581122</v>
       </c>
       <c r="I2" t="n">
         <v>383345.3446581123</v>
       </c>
       <c r="J2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.3446581123</v>
       </c>
       <c r="K2" t="n">
         <v>383345.3446581123</v>
       </c>
       <c r="L2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.3446581123</v>
       </c>
       <c r="M2" t="n">
         <v>383345.3446581123</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007602</v>
+        <v>86018.533820076</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279125.0601321633</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="C4" t="n">
         <v>279125.0601321633</v>
@@ -26424,7 +26424,7 @@
         <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="F4" t="n">
         <v>445.150385721245</v>
@@ -26436,25 +26436,25 @@
         <v>445.150385721245</v>
       </c>
       <c r="I4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="J4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="K4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="L4" t="n">
         <v>445.150385721245</v>
       </c>
       <c r="M4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="N4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="O4" t="n">
-        <v>445.1503857212451</v>
+        <v>445.1503857212449</v>
       </c>
       <c r="P4" t="n">
         <v>445.1503857212451</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>187079.5227241328</v>
+        <v>187079.5227241326</v>
       </c>
       <c r="C6" t="n">
-        <v>267848.9542556801</v>
+        <v>267848.9542556803</v>
       </c>
       <c r="D6" t="n">
         <v>267848.9542556803</v>
       </c>
       <c r="E6" t="n">
-        <v>-4933.870632008264</v>
+        <v>-4933.870632008242</v>
       </c>
       <c r="F6" t="n">
-        <v>340678.4721469443</v>
+        <v>340678.4721469444</v>
       </c>
       <c r="G6" t="n">
+        <v>340678.4721469444</v>
+      </c>
+      <c r="H6" t="n">
         <v>340678.4721469445</v>
-      </c>
-      <c r="H6" t="n">
-        <v>340678.4721469444</v>
       </c>
       <c r="I6" t="n">
         <v>340678.4721469445</v>
       </c>
       <c r="J6" t="n">
-        <v>277618.5295478381</v>
+        <v>277618.5295478383</v>
       </c>
       <c r="K6" t="n">
+        <v>340678.4721469446</v>
+      </c>
+      <c r="L6" t="n">
         <v>340678.4721469445</v>
-      </c>
-      <c r="L6" t="n">
-        <v>340678.4721469444</v>
       </c>
       <c r="M6" t="n">
         <v>254659.9383268685</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>164.5764392340873</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27424,28 +27424,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>237.6021154197477</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>167.8215280558789</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,13 +27473,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27512,10 +27512,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>66.96450839845241</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27619,25 +27619,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>203.0173518716929</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>42.30927575296769</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27682,7 +27682,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>14.31384691677781</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>50.10013888409017</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,13 +27792,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>209.8933976134044</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,10 +27871,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27907,7 +27907,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>171.0260875537777</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27986,19 +27986,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>37.01560241437875</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>192.5403129875763</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>123.6874957598916</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -31856,7 +31856,7 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P12" t="n">
-        <v>60.43011789536098</v>
+        <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
         <v>82.8928070998824</v>
@@ -32084,13 +32084,13 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
-        <v>91.47518954049946</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N15" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932971</v>
+        <v>90.93104805041338</v>
       </c>
       <c r="P15" t="n">
         <v>124.0031279382449</v>
@@ -32230,25 +32230,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K17" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M17" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N17" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O17" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P17" t="n">
         <v>174.5298045144673</v>
@@ -32257,16 +32257,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S17" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32303,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I18" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L18" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
         <v>164.5381207449218</v>
@@ -32333,7 +32333,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.89280709988239</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R18" t="n">
         <v>40.31853275515171</v>
@@ -32342,10 +32342,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T18" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H19" t="n">
-        <v>4.840375457618698</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K19" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N19" t="n">
-        <v>83.31087942545558</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R19" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T19" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32558,7 +32558,7 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449218</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
@@ -32567,7 +32567,7 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P21" t="n">
-        <v>124.0031279382449</v>
+        <v>71.97991789057295</v>
       </c>
       <c r="Q21" t="n">
         <v>82.8928070998824</v>
@@ -32786,13 +32786,13 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K24" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L24" t="n">
-        <v>138.0306725869553</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M24" t="n">
         <v>164.5381207449218</v>
@@ -33041,10 +33041,10 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>124.0031279382449</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.94019673382242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R27" t="n">
         <v>40.31853275515171</v>
@@ -33263,7 +33263,7 @@
         <v>61.35218381454669</v>
       </c>
       <c r="K30" t="n">
-        <v>104.8606541711232</v>
+        <v>72.9080438050635</v>
       </c>
       <c r="L30" t="n">
         <v>140.9980901415503</v>
@@ -33272,13 +33272,13 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N30" t="n">
-        <v>12.93721689827657</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O30" t="n">
         <v>154.5040580932971</v>
       </c>
       <c r="P30" t="n">
-        <v>124.0031279382449</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>82.8928070998824</v>
@@ -33506,13 +33506,13 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M33" t="n">
-        <v>8.582382440617096</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N33" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O33" t="n">
-        <v>154.5040580932971</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>124.0031279382449</v>
@@ -33734,7 +33734,7 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K36" t="n">
         <v>104.8606541711232</v>
@@ -34135,7 +34135,7 @@
         <v>154.3856233586786</v>
       </c>
       <c r="L41" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870993</v>
       </c>
       <c r="M41" t="n">
         <v>213.1129356452115</v>
@@ -34226,10 +34226,10 @@
         <v>154.5040580932972</v>
       </c>
       <c r="P42" t="n">
-        <v>124.0031279382449</v>
+        <v>50.94019673382221</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.89280709988242</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>40.31853275515172</v>
@@ -34781,19 +34781,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.51629994036225</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,7 +35027,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35255,16 +35255,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35495,7 +35495,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N12" t="n">
         <v>516.8936174628016</v>
@@ -35504,10 +35504,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K15" t="n">
         <v>231.4844522093428</v>
@@ -35732,19 +35732,19 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
-        <v>415.046219368481</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255822</v>
+        <v>342.1971228826985</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
@@ -35890,13 +35890,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M17" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N17" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K18" t="n">
-        <v>75.52871390503832</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
-        <v>488.1091505729034</v>
+        <v>424.5361405300196</v>
       </c>
       <c r="N18" t="n">
         <v>516.8936174628016</v>
@@ -35981,7 +35981,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
@@ -36057,7 +36057,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K21" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M21" t="n">
-        <v>488.1091505729034</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
         <v>516.8936174628016</v>
@@ -36215,10 +36215,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
-        <v>308.4914891638518</v>
+        <v>256.4682791161799</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
-        <v>370.3166381105403</v>
+        <v>156.7227248725416</v>
       </c>
       <c r="M24" t="n">
         <v>488.1091505729034</v>
@@ -36455,7 +36455,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
-        <v>373.2840556651353</v>
+        <v>156.7227248725416</v>
       </c>
       <c r="M27" t="n">
         <v>488.1091505729034</v>
@@ -36689,10 +36689,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>121.03571038365</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>231.4844522093428</v>
+        <v>199.5318418432831</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36920,13 +36920,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>360.9378791584968</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>308.4914891638518</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>152.98832074971</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
-        <v>373.2840556651353</v>
+        <v>311.2267829658388</v>
       </c>
       <c r="M33" t="n">
-        <v>332.1534122685987</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
-        <v>405.7701329255822</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>308.4914891638518</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
-        <v>373.2840556651353</v>
+        <v>217.3283173608305</v>
       </c>
       <c r="M36" t="n">
         <v>488.1091505729034</v>
@@ -37625,13 +37625,13 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
-        <v>373.2840556651353</v>
+        <v>156.7227248725416</v>
       </c>
       <c r="M39" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255822</v>
@@ -37640,7 +37640,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>258.4411848848628</v>
       </c>
       <c r="L41" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675625</v>
       </c>
       <c r="M41" t="n">
         <v>432.2802359107712</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37874,10 +37874,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>308.4914891638518</v>
+        <v>235.4285579594291</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38105,7 +38105,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2255028.842680341</v>
+        <v>2287607.057195539</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>366200.7754951578</v>
+        <v>379522.3892412406</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075584</v>
+        <v>8768687.11007558</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7131542.106110048</v>
+        <v>7131542.106110047</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,13 +676,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>90.15014305038721</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4.886970932436812</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>71.62389627899309</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>109.2410531244295</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>155.6728463193873</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>175.0426595591498</v>
+      </c>
+      <c r="C8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>198.7050131246913</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>91.56533252450008</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,7 +1265,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1272,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>59.15467017334329</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>60.03407569047375</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>268.1339814092298</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1446,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>36.25478010213102</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>136.6941370086349</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
@@ -1503,10 +1505,10 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>215.173248360737</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1549,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>92.4784086463653</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>184.1341378127508</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>117.889549819912</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>162.3073150960737</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1692,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1740,7 +1742,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>20.46474946062374</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1749,10 +1751,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>48.37669028362031</v>
       </c>
     </row>
     <row r="16">
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>140.4555134459652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>29.80942153822008</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.518805211386138</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1929,19 +1931,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>112.637689266747</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,7 +1976,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
-        <v>86.16326343026775</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
         <v>225.8986597023843</v>
@@ -1983,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2005,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>93.78175933261994</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>13.63855752214137</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>137.3883794282476</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>138.8989862569023</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2166,7 +2168,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2175,7 +2177,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
         <v>67.03858805571426</v>
@@ -2208,22 +2210,22 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>226.8900869672238</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>106.3028740211264</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2248,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>123.5544594002519</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,22 +2283,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>109.7384251876796</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>66.97649427705969</v>
       </c>
       <c r="W23" t="n">
-        <v>318.2801892474977</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2402,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>27.0240109355215</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2409,10 +2411,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
         <v>67.03858805571426</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>16.83786409935544</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2518,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>13.87222205719629</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>158.2261753708127</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>46.76820967987926</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>9.227178156183296</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>9.049743378592472</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2652,7 +2654,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>16.60419956430074</v>
       </c>
       <c r="Y28" t="n">
-        <v>187.9216174196134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.41086112371843</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
         <v>181.3631617334038</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>8.600111535127111</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2883,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2928,7 +2930,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>179.4181205760222</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>15.60609219526663</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>101.5289465722275</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>88.59832967195071</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>188.1399939299445</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>91.02294549326476</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3108,25 +3110,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>142.1900935216644</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>45.59910121103272</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
@@ -3174,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3199,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,22 +3231,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5288682289405</v>
+        <v>175.5626916877412</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>48.02391253490439</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>119.4472882189679</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
@@ -3320,19 +3322,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>335.4129376349906</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3354,13 +3356,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>24.64815776426665</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>67.03858805571426</v>
@@ -3396,7 +3398,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3408,7 +3410,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>40.2412654728257</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3433,19 +3435,19 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>129.6635172592366</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>163.3565097727589</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.089049841944</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>156.6454312779489</v>
       </c>
       <c r="W38" t="n">
-        <v>158.6080650900668</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3591,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>84.48745916175817</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3664,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>12.46775721162858</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,25 +3705,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>77.50776027739583</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>361.408155480323</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>200.9503281648163</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>46.11212902075021</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>17.93784657305899</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3831,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3907,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>67.28252800748253</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3919,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>147.3472002825671</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>229.3792217686537</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>131.1511819701073</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4068,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>66.55239406957189</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4177,25 +4179,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>13.87222205719618</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>460.1224861050055</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>444.665175483657</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>201.2163988395569</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>132.7447050367114</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>41.68395448076474</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>41.68395448076474</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>41.68395448076474</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.68395448076474</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>183.4549323908569</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C3" t="n">
-        <v>178.5185981156682</v>
+        <v>444.9858201382948</v>
       </c>
       <c r="D3" t="n">
-        <v>178.5185981156682</v>
+        <v>296.0514104770435</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>296.0514104770435</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>296.0514104770435</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,7 +4415,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
         <v>234.810827406191</v>
@@ -4440,19 +4442,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>391.2152311558108</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X3" t="n">
-        <v>391.2152311558108</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y3" t="n">
-        <v>183.4549323908569</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="4">
@@ -4510,25 +4512,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.067986854209</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E5" t="n">
-        <v>223.6192102101089</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>216.6737094609055</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>201.2163988395569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>201.2163988395569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>544.6916277525047</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4680,16 +4682,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>627.7355178317791</v>
+        <v>752.5431279580375</v>
       </c>
       <c r="W6" t="n">
-        <v>384.2867411876791</v>
+        <v>752.5431279580375</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>544.6916277525047</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>544.6916277525047</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.3558523848238</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="C8" t="n">
-        <v>266.3558523848238</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="D8" t="n">
-        <v>266.3558523848238</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4844,10 +4846,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>753.253405673024</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>509.8046290289238</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.7341723913397</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>112.5255106362308</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>112.5255106362308</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,10 +4889,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="M9" t="n">
         <v>234.810827406191</v>
-      </c>
-      <c r="M9" t="n">
-        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4911,22 +4913,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>461.2466632505798</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W9" t="n">
-        <v>401.4944711562937</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X9" t="n">
-        <v>401.4944711562937</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y9" t="n">
-        <v>193.7341723913397</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1164.47789022513</v>
+        <v>107.5354769370724</v>
       </c>
       <c r="C11" t="n">
-        <v>795.5153732847182</v>
+        <v>107.5354769370724</v>
       </c>
       <c r="D11" t="n">
-        <v>795.5153732847182</v>
+        <v>107.5354769370724</v>
       </c>
       <c r="E11" t="n">
-        <v>795.5153732847182</v>
+        <v>107.5354769370724</v>
       </c>
       <c r="F11" t="n">
-        <v>795.5153732847182</v>
+        <v>107.5354769370724</v>
       </c>
       <c r="G11" t="n">
-        <v>377.243605767603</v>
+        <v>107.5354769370724</v>
       </c>
       <c r="H11" t="n">
-        <v>46.89499644164432</v>
+        <v>107.5354769370724</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L11" t="n">
         <v>762.5916738244549</v>
@@ -5069,22 +5071,22 @@
         <v>2161.554709220192</v>
       </c>
       <c r="T11" t="n">
-        <v>2161.554709220192</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U11" t="n">
-        <v>2161.554709220192</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V11" t="n">
-        <v>2161.554709220192</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="W11" t="n">
-        <v>1808.786053950078</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="X11" t="n">
-        <v>1435.320295688998</v>
+        <v>884.2746489770059</v>
       </c>
       <c r="Y11" t="n">
-        <v>1164.47789022513</v>
+        <v>494.1353170011942</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>693.4102525704071</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C12" t="n">
-        <v>518.9572232892801</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D12" t="n">
-        <v>518.9572232892801</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E12" t="n">
-        <v>359.7197682838247</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F12" t="n">
         <v>359.7197682838247</v>
@@ -5121,10 +5123,10 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M12" t="n">
         <v>974.4476973832902</v>
@@ -5142,28 +5144,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>1766.626853520906</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V12" t="n">
-        <v>1531.474745289163</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="W12" t="n">
-        <v>1277.237388560962</v>
+        <v>1441.112009177413</v>
       </c>
       <c r="X12" t="n">
-        <v>1069.385888355429</v>
+        <v>1233.26050897188</v>
       </c>
       <c r="Y12" t="n">
-        <v>861.6255895904751</v>
+        <v>1025.500210206926</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>193.7849439395547</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="C13" t="n">
-        <v>193.7849439395547</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="D13" t="n">
-        <v>193.7849439395547</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="E13" t="n">
-        <v>193.7849439395547</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="F13" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="G13" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="H13" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="I13" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5218,31 +5220,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="W13" t="n">
-        <v>421.774494837572</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="X13" t="n">
-        <v>193.7849439395547</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.7849439395547</v>
+        <v>102.3180182963936</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1146.495209163961</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="C14" t="n">
-        <v>1146.495209163961</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="D14" t="n">
-        <v>788.2295105572106</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E14" t="n">
-        <v>788.2295105572106</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F14" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G14" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H14" t="n">
         <v>46.89499644164432</v>
@@ -5276,16 +5278,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5306,22 +5308,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T14" t="n">
-        <v>1923.234381203895</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U14" t="n">
-        <v>1923.234381203895</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V14" t="n">
-        <v>1923.234381203895</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W14" t="n">
-        <v>1923.234381203895</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X14" t="n">
-        <v>1923.234381203895</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y14" t="n">
-        <v>1533.095049228083</v>
+        <v>165.9753497950908</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>829.641765199318</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C15" t="n">
-        <v>655.188735918191</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D15" t="n">
-        <v>506.2543262569397</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E15" t="n">
         <v>506.2543262569397</v>
@@ -5355,19 +5357,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O15" t="n">
         <v>2039.343247810003</v>
@@ -5388,19 +5390,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>1902.858366149817</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V15" t="n">
-        <v>1667.706257918074</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W15" t="n">
-        <v>1413.468901189873</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X15" t="n">
-        <v>1205.61740098434</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="Y15" t="n">
-        <v>997.857102219386</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>197.0116358539801</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C16" t="n">
-        <v>197.0116358539801</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F16" t="n">
-        <v>46.89499644164432</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G16" t="n">
-        <v>46.89499644164432</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H16" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I16" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5455,31 +5457,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W16" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X16" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y16" t="n">
-        <v>197.0116358539801</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>572.6927139372265</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="C17" t="n">
-        <v>572.6927139372265</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="D17" t="n">
-        <v>572.6927139372265</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E17" t="n">
-        <v>542.5821871309436</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F17" t="n">
-        <v>542.5821871309436</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L17" t="n">
         <v>762.5916738244549</v>
@@ -5537,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T17" t="n">
-        <v>2270.376276991246</v>
+        <v>2337.155069343442</v>
       </c>
       <c r="U17" t="n">
-        <v>2016.589854876113</v>
+        <v>2337.155069343442</v>
       </c>
       <c r="V17" t="n">
-        <v>1685.526967532542</v>
+        <v>2337.155069343442</v>
       </c>
       <c r="W17" t="n">
-        <v>1332.758312262428</v>
+        <v>2337.155069343442</v>
       </c>
       <c r="X17" t="n">
-        <v>959.2925540013482</v>
+        <v>2337.155069343442</v>
       </c>
       <c r="Y17" t="n">
-        <v>959.2925540013482</v>
+        <v>2337.155069343442</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M18" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N18" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P18" t="n">
         <v>2344.749822082216</v>
@@ -5622,22 +5624,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>2036.038928772914</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>1807.858464427071</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1572.706356195328</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>457.6519340239745</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>457.6519340239745</v>
       </c>
       <c r="F19" t="n">
-        <v>46.89499644164432</v>
+        <v>310.7619865260641</v>
       </c>
       <c r="G19" t="n">
-        <v>46.89499644164432</v>
+        <v>141.6240462725736</v>
       </c>
       <c r="H19" t="n">
         <v>46.89499644164432</v>
@@ -5692,31 +5694,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>553.0079929724843</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V19" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>596.6570420678656</v>
+        <v>1314.319769475558</v>
       </c>
       <c r="C20" t="n">
-        <v>457.8809012312519</v>
+        <v>1314.319769475558</v>
       </c>
       <c r="D20" t="n">
-        <v>457.8809012312519</v>
+        <v>1314.319769475558</v>
       </c>
       <c r="E20" t="n">
-        <v>457.8809012312519</v>
+        <v>928.5315168773138</v>
       </c>
       <c r="F20" t="n">
-        <v>46.89499644164432</v>
+        <v>517.5456120877063</v>
       </c>
       <c r="G20" t="n">
-        <v>46.89499644164432</v>
+        <v>517.5456120877063</v>
       </c>
       <c r="H20" t="n">
-        <v>46.89499644164432</v>
+        <v>187.1970027617476</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
@@ -5786,16 +5788,16 @@
         <v>1687.785527736638</v>
       </c>
       <c r="V20" t="n">
-        <v>1356.722640393067</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="W20" t="n">
-        <v>1356.722640393067</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="X20" t="n">
-        <v>983.2568821319874</v>
+        <v>1314.319769475558</v>
       </c>
       <c r="Y20" t="n">
-        <v>983.2568821319874</v>
+        <v>1314.319769475558</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>722.607624735268</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C21" t="n">
-        <v>548.154595454141</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D21" t="n">
-        <v>399.2201857928898</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E21" t="n">
-        <v>399.2201857928898</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F21" t="n">
-        <v>252.6856278197748</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G21" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H21" t="n">
         <v>114.6107419524668</v>
@@ -5829,22 +5831,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L21" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.950675330485</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N21" t="n">
-        <v>1537.675356618659</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>1939.387788214985</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
         <v>2193.291384540003</v>
@@ -5856,25 +5858,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>2056.125618951029</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X21" t="n">
-        <v>1098.58326052029</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y21" t="n">
-        <v>890.8229617553361</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="C22" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="D22" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="E22" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="F22" t="n">
-        <v>46.89499644164432</v>
+        <v>171.697480684323</v>
       </c>
       <c r="G22" t="n">
         <v>46.89499644164432</v>
@@ -5929,31 +5931,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>301.5794846475312</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>301.5794846475312</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>301.5794846475312</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V22" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W22" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X22" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>960.8539546480588</v>
+        <v>774.1232119888066</v>
       </c>
       <c r="C23" t="n">
-        <v>960.8539546480588</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D23" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E23" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F23" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G23" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -6011,28 +6013,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S23" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T23" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U23" t="n">
-        <v>1613.411982645668</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V23" t="n">
-        <v>1282.349095302097</v>
+        <v>2277.096797559934</v>
       </c>
       <c r="W23" t="n">
-        <v>960.8539546480588</v>
+        <v>1924.32814228982</v>
       </c>
       <c r="X23" t="n">
-        <v>960.8539546480588</v>
+        <v>1550.86238402874</v>
       </c>
       <c r="Y23" t="n">
-        <v>960.8539546480588</v>
+        <v>1160.723052052928</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C24" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D24" t="n">
-        <v>420.3827549310374</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E24" t="n">
-        <v>261.1452999255819</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F24" t="n">
-        <v>114.6107419524668</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G24" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H24" t="n">
         <v>114.6107419524668</v>
@@ -6069,49 +6071,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L24" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M24" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N24" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O24" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P24" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U24" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V24" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W24" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X24" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y24" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.89499644164432</v>
+        <v>1800.884188622252</v>
       </c>
       <c r="C25" t="n">
-        <v>46.89499644164432</v>
+        <v>1800.884188622252</v>
       </c>
       <c r="D25" t="n">
-        <v>46.89499644164432</v>
+        <v>1800.884188622252</v>
       </c>
       <c r="E25" t="n">
-        <v>46.89499644164432</v>
+        <v>1800.884188622252</v>
       </c>
       <c r="F25" t="n">
-        <v>46.89499644164432</v>
+        <v>1800.884188622252</v>
       </c>
       <c r="G25" t="n">
-        <v>46.89499644164432</v>
+        <v>1800.884188622252</v>
       </c>
       <c r="H25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K25" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L25" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N25" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O25" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P25" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q25" t="n">
-        <v>566.78431370192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R25" t="n">
-        <v>552.7719681896006</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S25" t="n">
-        <v>336.0761416957212</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T25" t="n">
-        <v>336.0761416957212</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U25" t="n">
-        <v>46.89499644164432</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="V25" t="n">
-        <v>46.89499644164432</v>
+        <v>1800.884188622252</v>
       </c>
       <c r="W25" t="n">
-        <v>46.89499644164432</v>
+        <v>1800.884188622252</v>
       </c>
       <c r="X25" t="n">
-        <v>46.89499644164432</v>
+        <v>1800.884188622252</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.89499644164432</v>
+        <v>1800.884188622252</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>983.2568821319874</v>
+        <v>589.8228029692054</v>
       </c>
       <c r="C26" t="n">
-        <v>983.2568821319874</v>
+        <v>589.8228029692054</v>
       </c>
       <c r="D26" t="n">
-        <v>624.9911835252369</v>
+        <v>589.8228029692054</v>
       </c>
       <c r="E26" t="n">
-        <v>465.1667639587595</v>
+        <v>589.8228029692054</v>
       </c>
       <c r="F26" t="n">
-        <v>465.1667639587595</v>
+        <v>589.8228029692054</v>
       </c>
       <c r="G26" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H26" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6248,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2161.554709220192</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T26" t="n">
-        <v>1941.571949851771</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U26" t="n">
-        <v>1687.785527736638</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V26" t="n">
-        <v>1356.722640393067</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="W26" t="n">
-        <v>1356.722640393067</v>
+        <v>1366.561975009139</v>
       </c>
       <c r="X26" t="n">
-        <v>983.2568821319874</v>
+        <v>1366.561975009139</v>
       </c>
       <c r="Y26" t="n">
-        <v>983.2568821319874</v>
+        <v>976.4226430333272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C27" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D27" t="n">
-        <v>447.6797356739884</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E27" t="n">
-        <v>438.5385807461172</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F27" t="n">
-        <v>292.0040227730022</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G27" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H27" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6309,10 +6311,10 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M27" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N27" t="n">
         <v>1486.172378671464</v>
@@ -6345,10 +6347,10 @@
         <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401373</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.3481019751835</v>
+        <v>998.1996021807163</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L28" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M28" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N28" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O28" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R28" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S28" t="n">
-        <v>236.7148120170114</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T28" t="n">
-        <v>236.7148120170114</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U28" t="n">
-        <v>236.7148120170114</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V28" t="n">
-        <v>236.7148120170114</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="W28" t="n">
-        <v>236.7148120170114</v>
+        <v>1800.648163839369</v>
       </c>
       <c r="X28" t="n">
-        <v>236.7148120170114</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>790.948947646639</v>
+        <v>377.243605767603</v>
       </c>
       <c r="C29" t="n">
-        <v>790.948947646639</v>
+        <v>377.243605767603</v>
       </c>
       <c r="D29" t="n">
-        <v>432.6832490398886</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E29" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F29" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H29" t="n">
         <v>46.89499644164432</v>
@@ -6485,28 +6487,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2306.9610734724</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2123.765960610376</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T29" t="n">
-        <v>1903.783201241955</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U29" t="n">
-        <v>1903.783201241955</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V29" t="n">
-        <v>1903.783201241955</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="W29" t="n">
-        <v>1551.014545971841</v>
+        <v>1527.448536068616</v>
       </c>
       <c r="X29" t="n">
-        <v>1177.548787710761</v>
+        <v>1153.982777807536</v>
       </c>
       <c r="Y29" t="n">
-        <v>1177.548787710761</v>
+        <v>763.8434458317248</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>814.129334229901</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C30" t="n">
-        <v>639.676304948774</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D30" t="n">
-        <v>490.7418952875228</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E30" t="n">
-        <v>331.5044402820673</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F30" t="n">
-        <v>184.9698823089523</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G30" t="n">
         <v>46.89499644164432</v>
@@ -6540,22 +6542,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>244.4315198664946</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L30" t="n">
-        <v>613.9827349749785</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M30" t="n">
-        <v>1097.210794042153</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N30" t="n">
-        <v>1608.935475330326</v>
+        <v>1639.131396183828</v>
       </c>
       <c r="O30" t="n">
-        <v>2010.647906926653</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P30" t="n">
         <v>2193.291384540003</v>
@@ -6576,16 +6578,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W30" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401373</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y30" t="n">
-        <v>982.344671249969</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="F31" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="G31" t="n">
-        <v>46.89499644164432</v>
+        <v>149.4494879287428</v>
       </c>
       <c r="H31" t="n">
         <v>46.89499644164432</v>
@@ -6646,25 +6648,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>391.0727469424309</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V31" t="n">
-        <v>136.388258736544</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W31" t="n">
-        <v>136.388258736544</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X31" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1131.994375306259</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="C32" t="n">
-        <v>763.0318583658473</v>
+        <v>1199.048133101872</v>
       </c>
       <c r="D32" t="n">
-        <v>763.0318583658473</v>
+        <v>1199.048133101872</v>
       </c>
       <c r="E32" t="n">
-        <v>377.243605767603</v>
+        <v>813.2598805036273</v>
       </c>
       <c r="F32" t="n">
-        <v>377.243605767603</v>
+        <v>402.2739757140197</v>
       </c>
       <c r="G32" t="n">
-        <v>377.243605767603</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L32" t="n">
         <v>762.591673824455</v>
@@ -6719,31 +6721,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S32" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T32" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U32" t="n">
-        <v>1907.76828710506</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V32" t="n">
-        <v>1576.705399761489</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="W32" t="n">
-        <v>1223.936744491375</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="X32" t="n">
-        <v>1223.936744491375</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Y32" t="n">
-        <v>1131.994375306259</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.1327649551154</v>
+        <v>890.3368025054142</v>
       </c>
       <c r="C33" t="n">
-        <v>447.6797356739884</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D33" t="n">
-        <v>298.7453260127371</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E33" t="n">
-        <v>252.6856278197748</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F33" t="n">
-        <v>252.6856278197748</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G33" t="n">
-        <v>114.6107419524668</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6783,46 +6785,46 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>644.17865582848</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M33" t="n">
-        <v>1127.406714895654</v>
+        <v>1025.950675330485</v>
       </c>
       <c r="N33" t="n">
-        <v>1639.131396183828</v>
+        <v>1537.675356618659</v>
       </c>
       <c r="O33" t="n">
-        <v>1887.88481026779</v>
+        <v>1939.387788214985</v>
       </c>
       <c r="P33" t="n">
-        <v>2193.291384540003</v>
+        <v>2244.794362487199</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S33" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.3481019751835</v>
+        <v>1058.552139525482</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="G34" t="n">
-        <v>46.89499644164432</v>
+        <v>1998.275829618886</v>
       </c>
       <c r="H34" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="I34" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L34" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N34" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O34" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q34" t="n">
-        <v>566.78431370192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R34" t="n">
-        <v>566.78431370192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S34" t="n">
-        <v>350.0884872080407</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="T34" t="n">
-        <v>350.0884872080407</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="U34" t="n">
-        <v>301.5794846475312</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="V34" t="n">
-        <v>46.89499644164432</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="W34" t="n">
-        <v>46.89499644164432</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>2167.413769872377</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1212.631670769908</v>
+        <v>908.8833370410166</v>
       </c>
       <c r="C35" t="n">
-        <v>843.6691538294961</v>
+        <v>908.8833370410166</v>
       </c>
       <c r="D35" t="n">
-        <v>843.6691538294961</v>
+        <v>908.8833370410166</v>
       </c>
       <c r="E35" t="n">
-        <v>457.8809012312519</v>
+        <v>908.8833370410166</v>
       </c>
       <c r="F35" t="n">
-        <v>46.89499644164432</v>
+        <v>497.897432251409</v>
       </c>
       <c r="G35" t="n">
-        <v>46.89499644164432</v>
+        <v>497.897432251409</v>
       </c>
       <c r="H35" t="n">
-        <v>46.89499644164432</v>
+        <v>167.5488229254503</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
@@ -6959,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T35" t="n">
-        <v>1941.571949851771</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U35" t="n">
-        <v>1941.571949851771</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V35" t="n">
-        <v>1941.571949851771</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W35" t="n">
-        <v>1602.771002745719</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="X35" t="n">
-        <v>1602.771002745719</v>
+        <v>908.8833370410166</v>
       </c>
       <c r="Y35" t="n">
-        <v>1212.631670769908</v>
+        <v>908.8833370410166</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H36" t="n">
         <v>114.6107419524668</v>
@@ -7014,25 +7016,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L36" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M36" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N36" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P36" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7044,22 +7046,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U36" t="n">
-        <v>1894.892063851584</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V36" t="n">
-        <v>1659.739955619841</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W36" t="n">
-        <v>1405.50259889164</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>318.3514033993496</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="C37" t="n">
-        <v>318.3514033993496</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="D37" t="n">
-        <v>318.3514033993496</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="E37" t="n">
-        <v>318.3514033993496</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="F37" t="n">
-        <v>187.3781536425449</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="G37" t="n">
-        <v>187.3781536425449</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="H37" t="n">
-        <v>187.3781536425449</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="I37" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L37" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N37" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O37" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q37" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="R37" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="S37" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="W37" t="n">
-        <v>318.3514033993496</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="X37" t="n">
-        <v>318.3514033993496</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="Y37" t="n">
-        <v>318.3514033993496</v>
+        <v>2138.758986819787</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>795.5153732847182</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="C38" t="n">
-        <v>795.5153732847182</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="D38" t="n">
-        <v>795.5153732847182</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="E38" t="n">
-        <v>795.5153732847182</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F38" t="n">
         <v>795.5153732847182</v>
@@ -7193,31 +7195,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q38" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T38" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U38" t="n">
-        <v>2050.393517622824</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V38" t="n">
-        <v>1719.330630279253</v>
+        <v>1932.73569160552</v>
       </c>
       <c r="W38" t="n">
-        <v>1559.12046352161</v>
+        <v>1579.967036335406</v>
       </c>
       <c r="X38" t="n">
-        <v>1185.65470526053</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="Y38" t="n">
-        <v>795.5153732847182</v>
+        <v>1206.501278074326</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>682.5765037404603</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C39" t="n">
-        <v>508.1234744593334</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D39" t="n">
-        <v>359.1890647980821</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E39" t="n">
-        <v>199.9516097926266</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F39" t="n">
-        <v>199.9516097926266</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G39" t="n">
-        <v>199.9516097926266</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7254,16 +7256,16 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922996</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L39" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M39" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O39" t="n">
         <v>1887.88481026779</v>
@@ -7275,28 +7277,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T39" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V39" t="n">
-        <v>1520.640996459217</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W39" t="n">
-        <v>1266.403639731015</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X39" t="n">
-        <v>1058.552139525482</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y39" t="n">
-        <v>850.7918407605284</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2087.069735853946</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C40" t="n">
-        <v>2087.069735853946</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D40" t="n">
-        <v>1936.953096441611</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
-        <v>1936.953096441611</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S40" t="n">
-        <v>2087.069735853946</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>2087.069735853946</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U40" t="n">
-        <v>2087.069735853946</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V40" t="n">
-        <v>2087.069735853946</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="W40" t="n">
-        <v>2087.069735853946</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X40" t="n">
-        <v>2087.069735853946</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y40" t="n">
-        <v>2087.069735853946</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1680.796307467713</v>
+        <v>822.9396441406691</v>
       </c>
       <c r="C41" t="n">
-        <v>1311.833790527302</v>
+        <v>822.9396441406691</v>
       </c>
       <c r="D41" t="n">
-        <v>953.5680919205511</v>
+        <v>822.9396441406691</v>
       </c>
       <c r="E41" t="n">
-        <v>953.5680919205511</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F41" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G41" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7439,22 +7441,22 @@
         <v>2270.376276991246</v>
       </c>
       <c r="T41" t="n">
-        <v>2067.396147531835</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U41" t="n">
-        <v>2067.396147531835</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V41" t="n">
-        <v>2067.396147531835</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="W41" t="n">
-        <v>2067.396147531835</v>
+        <v>1586.544734377561</v>
       </c>
       <c r="X41" t="n">
-        <v>2067.396147531835</v>
+        <v>1213.078976116481</v>
       </c>
       <c r="Y41" t="n">
-        <v>2067.396147531835</v>
+        <v>822.9396441406691</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>790.3481019751835</v>
+        <v>743.7701938734156</v>
       </c>
       <c r="C42" t="n">
-        <v>615.8950726940565</v>
+        <v>569.3171645922886</v>
       </c>
       <c r="D42" t="n">
-        <v>597.7760357515726</v>
+        <v>420.3827549310373</v>
       </c>
       <c r="E42" t="n">
-        <v>438.5385807461172</v>
+        <v>261.1452999255818</v>
       </c>
       <c r="F42" t="n">
-        <v>292.0040227730022</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G42" t="n">
-        <v>153.9291369056942</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H42" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L42" t="n">
-        <v>645.6158192373777</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N42" t="n">
-        <v>1640.568559592726</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O42" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P42" t="n">
-        <v>2275.355263568887</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1907.261416444807</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C43" t="n">
-        <v>1907.261416444807</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D43" t="n">
-        <v>1907.261416444807</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E43" t="n">
-        <v>1907.261416444807</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F43" t="n">
-        <v>1839.299266942299</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G43" t="n">
-        <v>1839.299266942299</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H43" t="n">
-        <v>1839.299266942299</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I43" t="n">
-        <v>1839.299266942299</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J43" t="n">
         <v>1783.87624508755</v>
@@ -7588,31 +7590,31 @@
         <v>2344.749822082216</v>
       </c>
       <c r="Q43" t="n">
-        <v>2344.749822082216</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="R43" t="n">
-        <v>2344.749822082216</v>
+        <v>2149.407627422406</v>
       </c>
       <c r="S43" t="n">
-        <v>2128.053995588337</v>
+        <v>1932.711800928527</v>
       </c>
       <c r="T43" t="n">
-        <v>2128.053995588337</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="U43" t="n">
-        <v>2128.053995588337</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="V43" t="n">
-        <v>2128.053995588337</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="W43" t="n">
-        <v>2128.053995588337</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X43" t="n">
-        <v>2128.053995588337</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y43" t="n">
-        <v>1907.261416444807</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1104.471821314765</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="C44" t="n">
-        <v>735.5093043743535</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D44" t="n">
-        <v>377.243605767603</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E44" t="n">
-        <v>377.243605767603</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F44" t="n">
-        <v>377.243605767603</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G44" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
         <v>46.89499644164432</v>
@@ -7646,13 +7648,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M44" t="n">
         <v>1190.549107376119</v>
@@ -7670,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V44" t="n">
-        <v>2013.686934738646</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="W44" t="n">
-        <v>2013.686934738646</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="X44" t="n">
-        <v>1881.210993354699</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="Y44" t="n">
-        <v>1491.071661378887</v>
+        <v>1648.540761410733</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>783.0885888266431</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C45" t="n">
-        <v>608.6355595455161</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D45" t="n">
-        <v>459.7011498842648</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E45" t="n">
-        <v>300.4636948788093</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F45" t="n">
-        <v>153.9291369056942</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G45" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H45" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S45" t="n">
-        <v>2123.072528197426</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="T45" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U45" t="n">
-        <v>1856.305189777142</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V45" t="n">
-        <v>1621.153081545399</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W45" t="n">
-        <v>1366.915724817198</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X45" t="n">
-        <v>1159.064224611665</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y45" t="n">
-        <v>951.3039258467111</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q46" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>2087.069735853946</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T46" t="n">
-        <v>2073.057390341627</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>1783.87624508755</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.87624508755</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8061,10 +8063,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9249,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>402.132053707116</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9717,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L24" t="n">
-        <v>154.2790145108656</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>154.2790145108656</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10431,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>308.7830726041627</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>214.8846069991544</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>154.2790145108656</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,7 +10916,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599042</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>262.7810435509598</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>103.6511198592334</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>118.1039572468238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23334,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>130.2784035477363</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23391,10 +23393,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>10.72541134164729</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.4465608509556</v>
@@ -23437,7 +23439,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6194376234954</v>
+        <v>133.1410289771301</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23476,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>102.3888605238402</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>236.793491800771</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -23546,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>55.47561667866378</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23580,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23628,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.4339102417606</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23637,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.306005493684</v>
       </c>
     </row>
     <row r="16">
@@ -23656,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23704,7 +23706,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>78.12913990612964</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23735,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>352.1209485340417</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>210.2641265633513</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23817,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>45.00739118865395</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23862,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>111.3840075362419</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23871,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23893,19 +23895,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.3867970498209</v>
+        <v>63.60503771720093</v>
       </c>
       <c r="I19" t="n">
         <v>139.0783256288916</v>
@@ -23932,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>139.175798054024</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>227.8845123427599</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,10 +23986,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>24.7862092928049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24054,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24063,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24096,22 +24098,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>5.910500182201446</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>99.4701111823511</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24136,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4465608509556</v>
+        <v>43.89210145070376</v>
       </c>
       <c r="H22" t="n">
         <v>157.3867970498209</v>
@@ -24169,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>104.7904430412609</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>260.7757641930752</v>
       </c>
       <c r="W23" t="n">
-        <v>30.96077946991534</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24288,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>120.4210546291173</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24297,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H25" t="n">
-        <v>157.3867970498209</v>
+        <v>140.5489329504654</v>
       </c>
       <c r="I25" t="n">
         <v>139.0783256288916</v>
@@ -24406,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
-        <v>138.942133518969</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>223.7041947014491</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>367.3208401620647</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>157.306005493684</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>148.5953370768085</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24540,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24585,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
         <v>225.6194376234954</v>
@@ -24658,16 +24660,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>209.1054558247364</v>
       </c>
       <c r="Y28" t="n">
-        <v>30.66303593248136</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,10 +24685,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,7 +24697,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>163.6851955497072</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>36.2189485163427</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24737,16 +24739,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>340.6408571822859</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24771,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
         <v>105.9637990594094</v>
@@ -24816,7 +24818,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>53.38246657340304</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>190.0766035820377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>55.85785047759339</v>
       </c>
       <c r="I31" t="n">
         <v>139.0783256288916</v>
@@ -24886,22 +24888,22 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>137.1113257170865</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>225.9490559119995</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>295.2149931627888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24996,25 +24998,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>30.51840546665136</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>112.0459792443682</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25062,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,22 +25119,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R34" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>38.9661765411993</v>
       </c>
       <c r="T34" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>238.2654212666318</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>44.23790733073923</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25208,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>13.8280310824224</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25242,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>120.4210546291172</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25284,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25296,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>165.5317197306518</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25321,19 +25323,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>15.7575307636946</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>123.1664885638321</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25400,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>171.106827192186</v>
       </c>
       <c r="W38" t="n">
-        <v>190.6329036273462</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25479,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G39" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>21.47633989765126</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>132.9532908113027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.4465608509556</v>
@@ -25567,7 +25569,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25591,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>209.0152380591952</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>20.52221459193873</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,22 +25681,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>16.83260360992119</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>120.4210546291171</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>129.5072189915797</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25719,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>78.13852001544872</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.4465608509556</v>
@@ -25807,7 +25809,7 @@
         <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6194376234954</v>
+        <v>78.27223734092829</v>
       </c>
       <c r="U43" t="n">
         <v>286.2893338015361</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
         <v>163.6851955497072</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
@@ -25922,13 +25924,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>98.37303670148117</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>238.5799187083618</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25956,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>105.6924183331601</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>159.3462656328124</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26065,25 +26067,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R46" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>211.7472155662992</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>269.6851342372359</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>541971.0045166415</v>
+        <v>541971.0045166417</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>541971.0045166416</v>
+        <v>541971.0045166415</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>541971.0045166416</v>
+        <v>541971.0045166415</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>541971.0045166417</v>
+        <v>541971.0045166414</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>541971.0045166417</v>
+        <v>541971.0045166415</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>541971.0045166416</v>
+        <v>541971.0045166417</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>541971.0045166416</v>
+        <v>541971.0045166415</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>541971.0045166416</v>
+        <v>541971.0045166417</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>541971.0045166417</v>
+        <v>541971.0045166415</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>541971.0045166416</v>
+        <v>541971.0045166417</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>541971.0045166415</v>
+        <v>541971.0045166414</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
         <v>383345.3446581122</v>
@@ -26335,25 +26337,25 @@
         <v>383345.3446581123</v>
       </c>
       <c r="J2" t="n">
-        <v>383345.3446581123</v>
+        <v>383345.3446581122</v>
       </c>
       <c r="K2" t="n">
         <v>383345.3446581123</v>
       </c>
       <c r="L2" t="n">
+        <v>383345.3446581122</v>
+      </c>
+      <c r="M2" t="n">
+        <v>383345.3446581122</v>
+      </c>
+      <c r="N2" t="n">
+        <v>383345.3446581122</v>
+      </c>
+      <c r="O2" t="n">
         <v>383345.3446581123</v>
       </c>
-      <c r="M2" t="n">
-        <v>383345.3446581123</v>
-      </c>
-      <c r="N2" t="n">
-        <v>383345.3446581123</v>
-      </c>
-      <c r="O2" t="n">
-        <v>383345.3446581121</v>
-      </c>
       <c r="P2" t="n">
-        <v>383345.3446581123</v>
+        <v>383345.3446581122</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="C4" t="n">
         <v>279125.0601321633</v>
@@ -26424,7 +26426,7 @@
         <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
-        <v>445.1503857212451</v>
+        <v>445.150385721245</v>
       </c>
       <c r="F4" t="n">
         <v>445.150385721245</v>
@@ -26436,28 +26438,28 @@
         <v>445.150385721245</v>
       </c>
       <c r="I4" t="n">
-        <v>445.1503857212451</v>
+        <v>445.150385721245</v>
       </c>
       <c r="J4" t="n">
-        <v>445.1503857212451</v>
+        <v>445.150385721245</v>
       </c>
       <c r="K4" t="n">
-        <v>445.1503857212451</v>
+        <v>445.150385721245</v>
       </c>
       <c r="L4" t="n">
         <v>445.150385721245</v>
       </c>
       <c r="M4" t="n">
-        <v>445.1503857212451</v>
+        <v>445.150385721245</v>
       </c>
       <c r="N4" t="n">
         <v>445.1503857212451</v>
       </c>
       <c r="O4" t="n">
-        <v>445.1503857212449</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="P4" t="n">
-        <v>445.1503857212451</v>
+        <v>445.150385721245</v>
       </c>
     </row>
     <row r="5">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>187079.5227241326</v>
+        <v>187079.5227241325</v>
       </c>
       <c r="C6" t="n">
-        <v>267848.9542556803</v>
+        <v>267848.9542556799</v>
       </c>
       <c r="D6" t="n">
-        <v>267848.9542556803</v>
+        <v>267848.9542556801</v>
       </c>
       <c r="E6" t="n">
-        <v>-4933.870632008242</v>
+        <v>-4933.870632008322</v>
       </c>
       <c r="F6" t="n">
         <v>340678.4721469444</v>
@@ -26543,25 +26545,25 @@
         <v>340678.4721469445</v>
       </c>
       <c r="J6" t="n">
-        <v>277618.5295478383</v>
+        <v>277618.5295478382</v>
       </c>
       <c r="K6" t="n">
-        <v>340678.4721469446</v>
+        <v>340678.4721469445</v>
       </c>
       <c r="L6" t="n">
-        <v>340678.4721469445</v>
+        <v>340678.4721469444</v>
       </c>
       <c r="M6" t="n">
         <v>254659.9383268685</v>
       </c>
       <c r="N6" t="n">
+        <v>340678.4721469444</v>
+      </c>
+      <c r="O6" t="n">
         <v>340678.4721469445</v>
       </c>
-      <c r="O6" t="n">
-        <v>340678.4721469443</v>
-      </c>
       <c r="P6" t="n">
-        <v>340678.4721469445</v>
+        <v>340678.4721469444</v>
       </c>
     </row>
   </sheetData>
@@ -26771,7 +26773,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,13 +27396,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>42.30927575296769</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,22 +27423,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>237.6021154197477</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27458,28 +27460,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>167.8215280558789</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>65.71962088421755</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27512,7 +27514,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27582,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>192.6272392768849</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,10 +27636,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>42.30927575296769</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27670,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -27695,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,19 +27706,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27752,16 +27754,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>123.5595340249957</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>50.10013888409017</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>31.76164565717804</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>207.6911821043308</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>171.0260875537777</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27934,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,19 +27943,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>20.67011171199638</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>192.5403129875763</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.05078607424915</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>123.6874957598916</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -32075,7 +32077,7 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
@@ -32090,7 +32092,7 @@
         <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>90.93104805041338</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P15" t="n">
         <v>124.0031279382449</v>
@@ -32312,7 +32314,7 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454669</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
@@ -32330,7 +32332,7 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P18" t="n">
-        <v>124.0031279382449</v>
+        <v>121.0357103836502</v>
       </c>
       <c r="Q18" t="n">
         <v>82.8928070998824</v>
@@ -32549,7 +32551,7 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454669</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32558,7 +32560,7 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
@@ -32567,7 +32569,7 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P21" t="n">
-        <v>71.97991789057295</v>
+        <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
         <v>82.8928070998824</v>
@@ -33263,7 +33265,7 @@
         <v>61.35218381454669</v>
       </c>
       <c r="K30" t="n">
-        <v>72.9080438050635</v>
+        <v>104.8606541711232</v>
       </c>
       <c r="L30" t="n">
         <v>140.9980901415503</v>
@@ -33272,13 +33274,13 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N30" t="n">
-        <v>168.8929552025813</v>
+        <v>106.8356825032848</v>
       </c>
       <c r="O30" t="n">
-        <v>154.5040580932971</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>124.0031279382449</v>
       </c>
       <c r="Q30" t="n">
         <v>82.8928070998824</v>
@@ -33506,19 +33508,19 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M33" t="n">
-        <v>164.5381207449218</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P33" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q33" t="n">
-        <v>82.8928070998824</v>
+        <v>30.86959705221039</v>
       </c>
       <c r="R33" t="n">
         <v>40.31853275515171</v>
@@ -33737,7 +33739,7 @@
         <v>61.35218381454669</v>
       </c>
       <c r="K36" t="n">
-        <v>104.8606541711232</v>
+        <v>41.28764412823941</v>
       </c>
       <c r="L36" t="n">
         <v>140.9980901415503</v>
@@ -33889,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33910,22 +33912,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33980,25 +33982,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H40" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L40" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N40" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T40" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34135,7 +34137,7 @@
         <v>154.3856233586786</v>
       </c>
       <c r="L41" t="n">
-        <v>191.5290174870993</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M41" t="n">
         <v>213.1129356452115</v>
@@ -34208,7 +34210,7 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K42" t="n">
         <v>104.8606541711232</v>
@@ -34226,10 +34228,10 @@
         <v>154.5040580932972</v>
       </c>
       <c r="P42" t="n">
-        <v>50.94019673382221</v>
+        <v>124.0031279382449</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R42" t="n">
         <v>40.31853275515172</v>
@@ -34781,10 +34783,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>91.0829537758999</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>91.0829537758999</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35489,13 +35491,13 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
         <v>516.8936174628016</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35738,7 +35740,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>342.1971228826985</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>231.4844522093428</v>
@@ -35969,7 +35971,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
-        <v>424.5361405300196</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
         <v>516.8936174628016</v>
@@ -35978,7 +35980,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
         <v>516.8936174628016</v>
@@ -36215,7 +36217,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
-        <v>256.4682791161799</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
         <v>152.98832074971</v>
@@ -36437,10 +36439,10 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L24" t="n">
-        <v>156.7227248725416</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M24" t="n">
         <v>488.1091505729034</v>
@@ -36455,7 +36457,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
-        <v>156.7227248725416</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M27" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K30" t="n">
-        <v>199.5318418432831</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36920,13 +36922,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>516.8936174628016</v>
+        <v>454.836344763505</v>
       </c>
       <c r="O30" t="n">
-        <v>405.7701329255822</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
         <v>152.98832074971</v>
@@ -37151,22 +37153,22 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
-        <v>311.2267829658388</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M33" t="n">
-        <v>488.1091505729034</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.98832074971</v>
+        <v>100.965110702038</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L36" t="n">
-        <v>217.3283173608305</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M36" t="n">
         <v>488.1091505729034</v>
@@ -37403,7 +37405,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37555,13 +37557,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L39" t="n">
-        <v>156.7227248725416</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M39" t="n">
         <v>488.1091505729034</v>
@@ -37634,7 +37636,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
@@ -37701,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37716,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>258.4411848848628</v>
       </c>
       <c r="L41" t="n">
-        <v>373.4238170675625</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M41" t="n">
         <v>432.2802359107712</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093429</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37874,10 +37876,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>235.4285579594291</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037669</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38105,7 +38107,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>
@@ -38114,7 +38116,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
